--- a/Output Data/input-data.xlsx
+++ b/Output Data/input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibhav/Documents/Projects/nimf-tracker-git/nimf-tracker/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259786E-2212-424C-94C2-D3F5BB385437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D70ACD-8951-D14F-A9E7-6A4E6A8BEC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="6840" windowWidth="17060" windowHeight="9960" firstSheet="4" activeTab="6" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
+    <workbookView xWindow="8040" yWindow="10140" windowWidth="11200" windowHeight="9660" xr2:uid="{D619B3DC-10A9-6C4B-8E47-54B1B3814066}"/>
   </bookViews>
   <sheets>
     <sheet name="gst-eway" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="201">
   <si>
     <t>e-Way</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Chhattisgarh</t>
   </si>
   <si>
-    <t>8 </t>
-  </si>
-  <si>
     <t>Dadra and Nagar Haveli and Daman and Diu</t>
   </si>
   <si>
@@ -437,205 +434,10 @@
     <t>12 </t>
   </si>
   <si>
-    <t>25 </t>
-  </si>
-  <si>
-    <t>7 </t>
-  </si>
-  <si>
-    <t>11 </t>
-  </si>
-  <si>
     <t>9 </t>
   </si>
   <si>
-    <t>1088 </t>
-  </si>
-  <si>
-    <t>Kerala***</t>
-  </si>
-  <si>
-    <t>87 </t>
-  </si>
-  <si>
-    <t>23 </t>
-  </si>
-  <si>
-    <t>158 </t>
-  </si>
-  <si>
-    <t>20 </t>
-  </si>
-  <si>
-    <t>21 </t>
-  </si>
-  <si>
-    <t>22 </t>
-  </si>
-  <si>
-    <t>1063 </t>
-  </si>
-  <si>
-    <t>1486 </t>
-  </si>
-  <si>
-    <t>29 </t>
-  </si>
-  <si>
-    <t>55 </t>
-  </si>
-  <si>
-    <t>153 </t>
-  </si>
-  <si>
-    <t>179 </t>
-  </si>
-  <si>
-    <t>80 </t>
-  </si>
-  <si>
-    <t>151 </t>
-  </si>
-  <si>
-    <t>62 </t>
-  </si>
-  <si>
-    <t>317 </t>
-  </si>
-  <si>
-    <t>821 </t>
-  </si>
-  <si>
-    <t>791 </t>
-  </si>
-  <si>
-    <t>130 </t>
-  </si>
-  <si>
-    <t>199 </t>
-  </si>
-  <si>
-    <t>946 </t>
-  </si>
-  <si>
-    <t>1419 </t>
-  </si>
-  <si>
-    <t>313 </t>
-  </si>
-  <si>
-    <t>867 </t>
-  </si>
-  <si>
-    <t>305 </t>
-  </si>
-  <si>
-    <t>303 </t>
-  </si>
-  <si>
-    <t>469 </t>
-  </si>
-  <si>
-    <t>91 </t>
-  </si>
-  <si>
-    <t>173 </t>
-  </si>
-  <si>
-    <t>2753 </t>
-  </si>
-  <si>
-    <t>3870 </t>
-  </si>
-  <si>
-    <t>10853 </t>
-  </si>
-  <si>
-    <t>17086 </t>
-  </si>
-  <si>
-    <t>112 </t>
-  </si>
-  <si>
-    <t>1342 </t>
-  </si>
-  <si>
-    <t>2353 </t>
-  </si>
-  <si>
-    <t>2788 </t>
-  </si>
-  <si>
-    <t>4394 </t>
-  </si>
-  <si>
-    <t>76 </t>
-  </si>
-  <si>
-    <t>105 </t>
-  </si>
-  <si>
-    <t>152 </t>
-  </si>
-  <si>
-    <t>1173 </t>
-  </si>
-  <si>
-    <t>36 </t>
-  </si>
-  <si>
-    <t>750 </t>
-  </si>
-  <si>
-    <t>1266 </t>
-  </si>
-  <si>
     <t>18 </t>
-  </si>
-  <si>
-    <t>121 </t>
-  </si>
-  <si>
-    <t>269 </t>
-  </si>
-  <si>
-    <t>449 </t>
-  </si>
-  <si>
-    <t>1233 </t>
-  </si>
-  <si>
-    <t>2299 </t>
-  </si>
-  <si>
-    <t>2517 </t>
-  </si>
-  <si>
-    <t>3561 </t>
-  </si>
-  <si>
-    <t>465 </t>
-  </si>
-  <si>
-    <t>865 </t>
-  </si>
-  <si>
-    <t>17 </t>
-  </si>
-  <si>
-    <t>541 </t>
-  </si>
-  <si>
-    <t>783 </t>
-  </si>
-  <si>
-    <t>1131 </t>
-  </si>
-  <si>
-    <t>1902 </t>
-  </si>
-  <si>
-    <t>1357 </t>
   </si>
   <si>
     <t>Domestic</t>
@@ -700,6 +502,159 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>34 </t>
+  </si>
+  <si>
+    <t>51 </t>
+  </si>
+  <si>
+    <t>202 </t>
+  </si>
+  <si>
+    <t>288 </t>
+  </si>
+  <si>
+    <t>17 </t>
+  </si>
+  <si>
+    <t>24 </t>
+  </si>
+  <si>
+    <t>64 </t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>117 </t>
+  </si>
+  <si>
+    <t>224 </t>
+  </si>
+  <si>
+    <t>122 </t>
+  </si>
+  <si>
+    <t>420 </t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>141 </t>
+  </si>
+  <si>
+    <t>237 </t>
+  </si>
+  <si>
+    <t>89 </t>
+  </si>
+  <si>
+    <t>326 </t>
+  </si>
+  <si>
+    <t>96 </t>
+  </si>
+  <si>
+    <t>163 </t>
+  </si>
+  <si>
+    <t>83 </t>
+  </si>
+  <si>
+    <t>55 </t>
+  </si>
+  <si>
+    <t>75 </t>
+  </si>
+  <si>
+    <t>421 </t>
+  </si>
+  <si>
+    <t>648 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>1942 </t>
+  </si>
+  <si>
+    <t>3878 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>362 </t>
+  </si>
+  <si>
+    <t>515 </t>
+  </si>
+  <si>
+    <t>476 </t>
+  </si>
+  <si>
+    <t>992 </t>
+  </si>
+  <si>
+    <t>35 </t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>373 </t>
+  </si>
+  <si>
+    <t>805 </t>
+  </si>
+  <si>
+    <t>263 </t>
+  </si>
+  <si>
+    <t>116 </t>
+  </si>
+  <si>
+    <t>152 </t>
+  </si>
+  <si>
+    <t>464 </t>
+  </si>
+  <si>
+    <t>445 </t>
+  </si>
+  <si>
+    <t>705 </t>
+  </si>
+  <si>
+    <t>222 </t>
+  </si>
+  <si>
+    <t>374 </t>
+  </si>
+  <si>
+    <t>231 </t>
+  </si>
+  <si>
+    <t>279 </t>
+  </si>
+  <si>
+    <t>145 </t>
+  </si>
+  <si>
+    <t>346 </t>
+  </si>
 </sst>
 </file>
 
@@ -709,7 +664,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,15 +763,44 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -863,9 +847,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -897,7 +881,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,6 +890,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37651D-4599-2748-92D7-4C797FB0A6C3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1519,9 +1511,11 @@
         <v>44593</v>
       </c>
       <c r="B27">
-        <v>30670233</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>66055997</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1330260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8730D1-B073-F949-92E6-FAE69CFEA773}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2520,6 +2514,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B78">
+        <v>54.9</v>
+      </c>
+      <c r="C78">
+        <v>51.8</v>
+      </c>
+      <c r="D78">
+        <v>53.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2527,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFAB418-80AA-504F-AAFE-ECE862BB3CFF}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
@@ -3624,6 +3632,20 @@
         <v>1325607</v>
       </c>
     </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>44593</v>
+      </c>
+      <c r="B79" s="17">
+        <v>1380570</v>
+      </c>
+      <c r="C79" s="17">
+        <v>112681</v>
+      </c>
+      <c r="D79" s="17">
+        <v>1267889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3631,10 +3653,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B50F9-B9F7-634D-8B29-BB68178E8695}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3658,1039 +3680,1047 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
+        <v>44593</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3631.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>44562</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>3603.71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>44531</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7">
-        <v>3679.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>3177.17</v>
+      <c r="E4" s="7">
+        <v>3679.42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="7">
-        <v>3356.74</v>
+      <c r="E5" s="5">
+        <v>3177.17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6">
-        <v>44440</v>
-      </c>
-      <c r="B6" s="5">
-        <v>33</v>
-      </c>
+        <v>44470</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>3009.3</v>
+      <c r="E6" s="7">
+        <v>3356.74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B7" s="5">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>3009.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>44409</v>
-      </c>
-      <c r="B7" s="7">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7">
-        <v>37969696</v>
-      </c>
-      <c r="D7" s="7">
-        <v>201.2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3076.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>44378</v>
       </c>
       <c r="B8" s="7">
         <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>36337603</v>
+        <v>37969696</v>
       </c>
       <c r="D8" s="7">
-        <v>192.33</v>
+        <v>201.2</v>
       </c>
       <c r="E8" s="7">
-        <v>2976.39</v>
+        <v>3076.56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B9" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7">
-        <v>34734802</v>
+        <v>36337603</v>
       </c>
       <c r="D9" s="7">
-        <v>157.86000000000001</v>
+        <v>192.33</v>
       </c>
       <c r="E9" s="7">
-        <v>2576.2800000000002</v>
+        <v>2976.39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B10" s="7">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>34734802</v>
+      </c>
+      <c r="D10" s="7">
+        <v>157.86000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2576.2800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
         <v>44317</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>32</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>33448613</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>116.48</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>2125.16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
         <v>44287</v>
-      </c>
-      <c r="B11" s="7">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7">
-        <v>32716094</v>
-      </c>
-      <c r="D11" s="7">
-        <v>164.32</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2776.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>44256</v>
       </c>
       <c r="B12" s="7">
         <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>31209935</v>
+        <v>32716094</v>
       </c>
       <c r="D12" s="7">
-        <v>193.21</v>
+        <v>164.32</v>
       </c>
       <c r="E12" s="7">
-        <v>3086.32</v>
+        <v>2776.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B13" s="7">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>31209935</v>
+      </c>
+      <c r="D13" s="7">
+        <v>193.21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3086.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
         <v>44228</v>
-      </c>
-      <c r="B13" s="7">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7">
-        <v>158.96</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2556.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6">
-        <v>44197</v>
       </c>
       <c r="B14" s="7">
         <v>29</v>
       </c>
-      <c r="C14" s="7">
-        <v>24945261</v>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>148.56</v>
+        <v>158.96</v>
       </c>
       <c r="E14" s="7">
-        <v>2397.84</v>
+        <v>2556.34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B15" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
-        <v>22950023</v>
+        <v>24945261</v>
       </c>
       <c r="D15" s="7">
-        <v>138.41</v>
+        <v>148.56</v>
       </c>
       <c r="E15" s="7">
-        <v>2303.79</v>
+        <v>2397.84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6">
+        <v>44166</v>
+      </c>
+      <c r="B16" s="7">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22950023</v>
+      </c>
+      <c r="D16" s="7">
+        <v>138.41</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2303.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
         <v>44136</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>21096651</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>124.88</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>2102.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18">
-      <c r="A17" s="9">
-        <v>44105</v>
-      </c>
-      <c r="B17" s="10">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10">
-        <v>20206215</v>
-      </c>
-      <c r="D17" s="10">
-        <v>122.36</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2137.16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18">
       <c r="A18" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="10">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10">
+        <v>20206215</v>
+      </c>
+      <c r="D18" s="10">
+        <v>122.36</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2137.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="9">
         <v>44075</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11">
+      <c r="B19" s="5"/>
+      <c r="C19" s="11">
         <v>19404168</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>110.08</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>1940.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="6">
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="6">
         <v>44044</v>
-      </c>
-      <c r="B19" s="5">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11">
-        <v>18695199</v>
-      </c>
-      <c r="D19" s="11">
-        <v>96.83</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1712.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="9">
-        <v>44013</v>
       </c>
       <c r="B20" s="5">
         <v>26</v>
       </c>
       <c r="C20" s="11">
-        <v>18087896</v>
+        <v>18695199</v>
       </c>
       <c r="D20" s="11">
-        <v>86.62</v>
+        <v>96.83</v>
       </c>
       <c r="E20" s="11">
-        <v>1623.3</v>
+        <v>1712.58</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18">
       <c r="A21" s="9">
-        <v>43983</v>
-      </c>
-      <c r="B21" s="11">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="5">
         <v>26</v>
       </c>
       <c r="C21" s="11">
-        <v>17522199</v>
+        <v>18087896</v>
       </c>
       <c r="D21" s="11">
-        <v>81.92</v>
+        <v>86.62</v>
       </c>
       <c r="E21" s="11">
-        <v>1511.93</v>
+        <v>1623.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="9">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B22" s="11">
         <v>26</v>
       </c>
       <c r="C22" s="11">
-        <v>17023529</v>
+        <v>17522199</v>
       </c>
       <c r="D22" s="11">
-        <v>55.17</v>
+        <v>81.92</v>
       </c>
       <c r="E22" s="11">
-        <v>1142.3399999999999</v>
+        <v>1511.93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18">
       <c r="A23" s="9">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B23" s="11">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <v>16841414</v>
+        <v>17023529</v>
       </c>
       <c r="D23" s="11">
-        <v>10.26</v>
+        <v>55.17</v>
       </c>
       <c r="E23" s="11">
-        <v>247.58</v>
+        <v>1142.3399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18">
       <c r="A24" s="9">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B24" s="11">
         <v>26</v>
       </c>
       <c r="C24" s="11">
-        <v>16820979</v>
+        <v>16841414</v>
       </c>
       <c r="D24" s="11">
-        <v>84.55</v>
+        <v>10.26</v>
       </c>
       <c r="E24" s="11">
-        <v>1421.01</v>
+        <v>247.58</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18">
       <c r="A25" s="9">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B25" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
-        <v>16018822</v>
+        <v>16820979</v>
       </c>
       <c r="D25" s="11">
-        <v>110.13</v>
+        <v>84.55</v>
       </c>
       <c r="E25" s="11">
-        <v>1841.22</v>
+        <v>1421.01</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18">
       <c r="A26" s="9">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B26" s="11">
         <v>25</v>
       </c>
       <c r="C26" s="11">
-        <v>14423128</v>
+        <v>16018822</v>
       </c>
       <c r="D26" s="11">
-        <v>93.02</v>
+        <v>110.13</v>
       </c>
       <c r="E26" s="11">
-        <v>1622.68</v>
+        <v>1841.22</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18">
       <c r="A27" s="9">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B27" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11">
-        <v>11666372</v>
+        <v>14423128</v>
       </c>
       <c r="D27" s="11">
-        <v>64.33</v>
+        <v>93.02</v>
       </c>
       <c r="E27" s="11">
-        <v>1256.8399999999999</v>
+        <v>1622.68</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18">
       <c r="A28" s="9">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B28" s="11">
         <v>24</v>
       </c>
       <c r="C28" s="11">
-        <v>7901499</v>
+        <v>11666372</v>
       </c>
       <c r="D28" s="11">
-        <v>34.92</v>
+        <v>64.33</v>
       </c>
       <c r="E28" s="11">
-        <v>773.95</v>
+        <v>1256.8399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="9">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B29" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>6371309</v>
+        <v>7901499</v>
       </c>
       <c r="D29" s="11">
-        <v>31.46</v>
+        <v>34.92</v>
       </c>
       <c r="E29" s="11">
-        <v>702.86</v>
+        <v>773.95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="9">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B30" s="11">
         <v>23</v>
       </c>
       <c r="C30" s="11">
-        <v>5998947</v>
+        <v>6371309</v>
       </c>
       <c r="D30" s="11">
-        <v>29.01</v>
+        <v>31.46</v>
       </c>
       <c r="E30" s="11">
-        <v>658.94</v>
+        <v>702.86</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18">
       <c r="A31" s="9">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B31" s="11">
         <v>23</v>
       </c>
       <c r="C31" s="11">
-        <v>5717702</v>
+        <v>5998947</v>
       </c>
       <c r="D31" s="11">
-        <v>27.78</v>
+        <v>29.01</v>
       </c>
       <c r="E31" s="11">
-        <v>610.52</v>
+        <v>658.94</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18">
       <c r="A32" s="9">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B32" s="11">
         <v>23</v>
       </c>
       <c r="C32" s="11">
-        <v>5469196</v>
+        <v>5717702</v>
       </c>
       <c r="D32" s="11">
-        <v>27.26</v>
+        <v>27.78</v>
       </c>
       <c r="E32" s="11">
-        <v>608.51</v>
+        <v>610.52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18">
       <c r="A33" s="9">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B33" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="11">
-        <v>5222312</v>
+        <v>5469196</v>
       </c>
       <c r="D33" s="11">
-        <v>26.61</v>
+        <v>27.26</v>
       </c>
       <c r="E33" s="11">
-        <v>596.17999999999995</v>
+        <v>608.51</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18">
       <c r="A34" s="9">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B34" s="11">
         <v>22</v>
       </c>
       <c r="C34" s="11">
-        <v>5001217</v>
+        <v>5222312</v>
       </c>
       <c r="D34" s="11">
-        <v>27.52</v>
+        <v>26.61</v>
       </c>
       <c r="E34" s="11">
-        <v>616.4</v>
+        <v>596.17999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18">
       <c r="A35" s="9">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B35" s="11">
         <v>22</v>
       </c>
       <c r="C35" s="11">
-        <v>4772434</v>
+        <v>5001217</v>
       </c>
       <c r="D35" s="11">
-        <v>25.98</v>
+        <v>27.52</v>
       </c>
       <c r="E35" s="11">
-        <v>585.38</v>
+        <v>616.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18">
       <c r="A36" s="9">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B36" s="11">
         <v>22</v>
       </c>
       <c r="C36" s="11">
-        <v>4554913</v>
+        <v>4772434</v>
       </c>
       <c r="D36" s="11">
-        <v>26.73</v>
+        <v>25.98</v>
       </c>
       <c r="E36" s="11">
-        <v>595.78</v>
+        <v>585.38</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18">
       <c r="A37" s="9">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B37" s="11">
         <v>22</v>
       </c>
       <c r="C37" s="11">
-        <v>4315255</v>
+        <v>4554913</v>
       </c>
       <c r="D37" s="11">
-        <v>23.85</v>
+        <v>26.73</v>
       </c>
       <c r="E37" s="11">
-        <v>527.44000000000005</v>
+        <v>595.78</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18">
       <c r="A38" s="9">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B38" s="11">
         <v>22</v>
       </c>
       <c r="C38" s="11">
-        <v>4088478</v>
+        <v>4315255</v>
       </c>
       <c r="D38" s="11">
-        <v>24.52</v>
+        <v>23.85</v>
       </c>
       <c r="E38" s="11">
-        <v>535.91</v>
+        <v>527.44000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18">
       <c r="A39" s="9">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B39" s="11">
         <v>22</v>
       </c>
       <c r="C39" s="11">
-        <v>3821564</v>
+        <v>4088478</v>
       </c>
       <c r="D39" s="11">
-        <v>24.21</v>
+        <v>24.52</v>
       </c>
       <c r="E39" s="11">
-        <v>534.11</v>
+        <v>535.91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18">
       <c r="A40" s="9">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B40" s="11">
         <v>22</v>
       </c>
       <c r="C40" s="11">
-        <v>3583989</v>
+        <v>3821564</v>
       </c>
       <c r="D40" s="11">
-        <v>21.22</v>
+        <v>24.21</v>
       </c>
       <c r="E40" s="11">
-        <v>466.83</v>
+        <v>534.11</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18">
       <c r="A41" s="9">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B41" s="11">
         <v>22</v>
       </c>
       <c r="C41" s="11">
-        <v>3349309</v>
+        <v>3583989</v>
       </c>
       <c r="D41" s="11">
-        <v>22.28</v>
+        <v>21.22</v>
       </c>
       <c r="E41" s="11">
-        <v>502.47</v>
+        <v>466.83</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18">
       <c r="A42" s="9">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B42" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11">
-        <v>3102686</v>
+        <v>3349309</v>
       </c>
       <c r="D42" s="11">
-        <v>20.64</v>
+        <v>22.28</v>
       </c>
       <c r="E42" s="11">
-        <v>470.65</v>
+        <v>502.47</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18">
       <c r="A43" s="9">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B43" s="11">
         <v>21</v>
       </c>
       <c r="C43" s="11">
-        <v>2879997</v>
+        <v>3102686</v>
       </c>
       <c r="D43" s="11">
-        <v>20.39</v>
+        <v>20.64</v>
       </c>
       <c r="E43" s="11">
-        <v>463.88</v>
+        <v>470.65</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18">
       <c r="A44" s="9">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B44" s="11">
         <v>21</v>
       </c>
       <c r="C44" s="11">
-        <v>2638733</v>
+        <v>2879997</v>
       </c>
       <c r="D44" s="11">
-        <v>18.47</v>
+        <v>20.39</v>
       </c>
       <c r="E44" s="11">
-        <v>418.08</v>
+        <v>463.88</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18">
       <c r="A45" s="9">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B45" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="11">
-        <v>2395938</v>
+        <v>2638733</v>
       </c>
       <c r="D45" s="11">
-        <v>18.29</v>
+        <v>18.47</v>
       </c>
       <c r="E45" s="11">
-        <v>428.61</v>
+        <v>418.08</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18">
       <c r="A46" s="9">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B46" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" s="11">
-        <v>2138615</v>
+        <v>2395938</v>
       </c>
       <c r="D46" s="11">
-        <v>17.87</v>
+        <v>18.29</v>
       </c>
       <c r="E46" s="11">
-        <v>426.62</v>
+        <v>428.61</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="18">
       <c r="A47" s="9">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B47" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C47" s="11">
-        <v>1882586</v>
+        <v>2138615</v>
       </c>
       <c r="D47" s="11">
-        <v>15.88</v>
+        <v>17.87</v>
       </c>
       <c r="E47" s="11">
-        <v>390.07</v>
+        <v>426.62</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18">
       <c r="A48" s="9">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B48" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="11">
-        <v>1633868</v>
+        <v>1882586</v>
       </c>
       <c r="D48" s="11">
-        <v>15.49</v>
+        <v>15.88</v>
       </c>
       <c r="E48" s="11">
-        <v>382.14</v>
+        <v>390.07</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18">
       <c r="A49" s="9">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B49" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="11">
-        <v>1366224</v>
+        <v>1633868</v>
       </c>
       <c r="D49" s="11">
-        <v>13.71</v>
+        <v>15.49</v>
       </c>
       <c r="E49" s="11">
-        <v>345.94</v>
+        <v>382.14</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18">
       <c r="A50" s="9">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B50" s="11">
         <v>14</v>
       </c>
       <c r="C50" s="11">
-        <v>1146807</v>
+        <v>1366224</v>
       </c>
       <c r="D50" s="11">
-        <v>12.93</v>
+        <v>13.71</v>
       </c>
       <c r="E50" s="11">
-        <v>327.76</v>
+        <v>345.94</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18">
       <c r="A51" s="9">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B51" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11">
-        <v>915205</v>
+        <v>1146807</v>
       </c>
       <c r="D51" s="11">
-        <v>12.29</v>
+        <v>12.93</v>
       </c>
       <c r="E51" s="11">
-        <v>319.82</v>
+        <v>327.76</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18">
       <c r="A52" s="9">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B52" s="11">
         <v>12</v>
       </c>
       <c r="C52" s="11">
-        <v>768923</v>
+        <v>915205</v>
       </c>
       <c r="D52" s="11">
-        <v>10.7</v>
+        <v>12.29</v>
       </c>
       <c r="E52" s="11">
-        <v>285.26</v>
+        <v>319.82</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18">
       <c r="A53" s="9">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B53" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="11">
-        <v>724407</v>
+        <v>768923</v>
       </c>
       <c r="D53" s="11">
-        <v>9.7899999999999991</v>
+        <v>10.7</v>
       </c>
       <c r="E53" s="11">
-        <v>262.62</v>
+        <v>285.26</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18">
       <c r="A54" s="9">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B54" s="11">
         <v>11</v>
       </c>
       <c r="C54" s="11">
-        <v>685420</v>
+        <v>724407</v>
       </c>
       <c r="D54" s="11">
-        <v>10.14</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E54" s="11">
-        <v>275.14999999999998</v>
+        <v>262.62</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18">
       <c r="A55" s="9">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B55" s="11">
         <v>11</v>
       </c>
       <c r="C55" s="11">
-        <v>617623</v>
+        <v>685420</v>
       </c>
       <c r="D55" s="11">
-        <v>9.66</v>
+        <v>10.14</v>
       </c>
       <c r="E55" s="11">
-        <v>257.86</v>
+        <v>275.14999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18">
       <c r="A56" s="9">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B56" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="11">
-        <v>564049</v>
+        <v>617623</v>
       </c>
       <c r="D56" s="11">
-        <v>8.64</v>
+        <v>9.66</v>
       </c>
       <c r="E56" s="11">
-        <v>234.18</v>
+        <v>257.86</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18">
       <c r="A57" s="9">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B57" s="11">
         <v>10</v>
       </c>
       <c r="C57" s="11">
-        <v>522960</v>
+        <v>564049</v>
       </c>
       <c r="D57" s="11">
-        <v>8.2100000000000009</v>
+        <v>8.64</v>
       </c>
       <c r="E57" s="11">
-        <v>225.76</v>
+        <v>234.18</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18">
       <c r="A58" s="9">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B58" s="11">
         <v>10</v>
       </c>
       <c r="C58" s="11">
-        <v>493231</v>
+        <v>522960</v>
       </c>
       <c r="D58" s="11">
-        <v>8.07</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E58" s="11">
-        <v>225.38</v>
+        <v>225.76</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18">
       <c r="A59" s="9">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B59" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="11">
-        <v>455705</v>
+        <v>493231</v>
       </c>
       <c r="D59" s="11">
-        <v>7.41</v>
+        <v>8.07</v>
       </c>
       <c r="E59" s="11">
-        <v>210.53</v>
+        <v>225.38</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18">
       <c r="A60" s="9">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B60" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="11">
-        <v>412497</v>
+        <v>455705</v>
       </c>
       <c r="D60" s="11">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="E60" s="11">
-        <v>209.39</v>
+        <v>210.53</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18">
       <c r="A61" s="9">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B61" s="11">
         <v>6</v>
       </c>
       <c r="C61" s="11">
-        <v>342960</v>
+        <v>412497</v>
       </c>
       <c r="D61" s="11">
-        <v>6.55</v>
+        <v>7.5</v>
       </c>
       <c r="E61" s="11">
-        <v>184.21</v>
+        <v>209.39</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18">
       <c r="A62" s="9">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B62" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="11">
-        <v>289033</v>
+        <v>342960</v>
       </c>
       <c r="D62" s="11">
-        <v>6.41</v>
+        <v>6.55</v>
       </c>
       <c r="E62" s="11">
-        <v>178.95</v>
+        <v>184.21</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18">
       <c r="A63" s="9">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B63" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="11">
-        <v>208761</v>
+        <v>289033</v>
       </c>
       <c r="D63" s="11">
-        <v>3.19</v>
+        <v>6.41</v>
       </c>
       <c r="E63" s="11">
-        <v>88.12</v>
+        <v>178.95</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18">
       <c r="A64" s="9">
+        <v>42705</v>
+      </c>
+      <c r="B64" s="11">
+        <v>4</v>
+      </c>
+      <c r="C64" s="11">
+        <v>208761</v>
+      </c>
+      <c r="D64" s="11">
+        <v>3.19</v>
+      </c>
+      <c r="E64" s="11">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18">
+      <c r="A65" s="9">
         <v>42675</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B65" s="11">
         <v>3</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C65" s="11">
         <v>107801</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4701,10 +4731,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEE768D-FDEC-414C-B856-7F93E0E94CC0}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4965,7 +4995,7 @@
         <v>17854</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="12">
         <v>44501</v>
       </c>
@@ -4973,7 +5003,7 @@
         <v>17131</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="12">
         <v>44531</v>
       </c>
@@ -4981,13 +5011,14 @@
         <v>18434</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="4">
         <v>44562</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="5">
         <v>17614</v>
       </c>
+      <c r="C35" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4996,11 +5027,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC6F5E2-B870-4348-99F8-4B5FD1019E5B}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6072,8 +6103,8 @@
       <c r="E31" s="13">
         <v>56383.3</v>
       </c>
-      <c r="F31" s="13">
-        <v>33443.699999999997</v>
+      <c r="F31" s="37">
+        <v>33815.9</v>
       </c>
       <c r="G31" s="5">
         <v>53628</v>
@@ -6095,20 +6126,20 @@
       <c r="A32" s="6">
         <v>44470</v>
       </c>
-      <c r="B32" s="19">
-        <v>9503</v>
-      </c>
-      <c r="C32" s="19">
-        <v>8752</v>
+      <c r="B32" s="37">
+        <v>9790</v>
+      </c>
+      <c r="C32" s="37">
+        <v>9039</v>
       </c>
       <c r="D32" s="19">
         <v>117350</v>
       </c>
-      <c r="E32" s="19">
-        <v>53428.9</v>
-      </c>
-      <c r="F32" s="19">
-        <v>35623.699999999997</v>
+      <c r="E32" s="37">
+        <v>53422.5</v>
+      </c>
+      <c r="F32" s="37">
+        <v>35712.300000000003</v>
       </c>
       <c r="G32" s="19">
         <v>59956</v>
@@ -6130,20 +6161,20 @@
       <c r="A33" s="6">
         <v>44501</v>
       </c>
-      <c r="B33" s="19">
-        <v>9220</v>
-      </c>
-      <c r="C33" s="19">
-        <v>8502</v>
+      <c r="B33" s="37">
+        <v>9269</v>
+      </c>
+      <c r="C33" s="37">
+        <v>8551</v>
       </c>
       <c r="D33" s="19">
         <v>116830</v>
       </c>
-      <c r="E33" s="19">
-        <v>52881</v>
-      </c>
-      <c r="F33" s="19">
-        <v>31740</v>
+      <c r="E33" s="37">
+        <v>53388.2</v>
+      </c>
+      <c r="F33" s="37">
+        <v>31796.6</v>
       </c>
       <c r="G33" s="19">
         <v>59428</v>
@@ -6165,20 +6196,20 @@
       <c r="A34" s="6">
         <v>44531</v>
       </c>
-      <c r="B34" s="19">
-        <v>9390</v>
-      </c>
-      <c r="C34" s="19">
-        <v>8728</v>
+      <c r="B34" s="37">
+        <v>10073</v>
+      </c>
+      <c r="C34" s="37">
+        <v>9408</v>
       </c>
       <c r="D34" s="19">
         <v>126780</v>
       </c>
-      <c r="E34" s="19">
-        <v>59341</v>
-      </c>
-      <c r="F34" s="19">
-        <v>37335</v>
+      <c r="E34" s="37">
+        <v>60309.5</v>
+      </c>
+      <c r="F34" s="37">
+        <v>39307.9</v>
       </c>
       <c r="G34" s="19">
         <v>62930</v>
@@ -6200,29 +6231,52 @@
       <c r="A35" s="2">
         <v>44562</v>
       </c>
-      <c r="B35" s="17">
-        <v>9812</v>
-      </c>
-      <c r="C35" s="17">
-        <v>9653</v>
+      <c r="B35" s="37">
+        <v>10168</v>
+      </c>
+      <c r="C35" s="37">
+        <v>10087</v>
       </c>
       <c r="D35" s="17">
         <v>129010</v>
       </c>
-      <c r="E35" s="17">
-        <v>52002.5</v>
-      </c>
-      <c r="F35" s="17">
-        <v>34055.1</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="E35" s="37">
+        <v>53054.1</v>
+      </c>
+      <c r="F35" s="37">
+        <v>35150.400000000001</v>
+      </c>
+      <c r="G35" s="37">
+        <v>62492</v>
+      </c>
+      <c r="H35" s="37">
+        <v>1691850</v>
+      </c>
+      <c r="I35" s="37">
+        <v>2883260</v>
+      </c>
       <c r="J35" s="17">
         <v>26910</v>
       </c>
       <c r="K35" s="17">
         <v>15830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B36" s="37">
+        <v>9706</v>
+      </c>
+      <c r="C36" s="37">
+        <v>9200</v>
+      </c>
+      <c r="E36" s="37">
+        <v>54984.9</v>
+      </c>
+      <c r="F36" s="37">
+        <v>33794.6</v>
       </c>
     </row>
   </sheetData>
@@ -6232,11 +6286,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885F84EB-1F73-1245-BB50-FDD52D41BDBE}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6945,6 +6999,17 @@
         <v>8.27</v>
       </c>
     </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3">
+        <v>44603</v>
+      </c>
+      <c r="B65" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C65" s="5">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6952,10 +7017,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC45300-6A73-FD40-9CA1-0A8697567D0E}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7996,7 +8061,20 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="B130" s="17"/>
+      <c r="A130" s="3">
+        <v>44610</v>
+      </c>
+      <c r="B130" s="17">
+        <v>45508670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="14">
+        <v>44617</v>
+      </c>
+      <c r="B131" s="37">
+        <v>45829590</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8005,7 +8083,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353B576-38C4-E445-9E6D-988228532D05}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
@@ -9059,6 +9137,17 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="26">
+        <v>44603</v>
+      </c>
+      <c r="B96" s="5">
+        <v>9.11</v>
+      </c>
+      <c r="C96" s="5">
+        <v>7.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9066,15 +9155,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0D774-4FB9-484A-8B9C-C85D078E33FB}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -9088,21 +9177,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18">
+    <row r="2" spans="1:14" ht="18">
       <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="20">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D2" s="20">
-        <v>9833</v>
+        <v>9887</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20">
         <v>129</v>
@@ -9112,61 +9201,53 @@
       <c r="I2" s="22"/>
       <c r="J2" s="21"/>
       <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" ht="18">
+      <c r="L2" s="20"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="18">
       <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="20">
-        <v>7358</v>
+        <v>1341</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D3" s="20">
-        <v>2293882</v>
+        <v>2302192</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F3" s="20">
-        <v>14710</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>74</v>
-      </c>
+        <v>14729</v>
+      </c>
+      <c r="G3" s="20"/>
       <c r="H3" s="22"/>
-      <c r="I3" s="22">
-        <v>2</v>
-      </c>
+      <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" ht="18">
+    </row>
+    <row r="4" spans="1:14" ht="18">
       <c r="A4" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="20">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D4" s="20">
-        <v>63652</v>
+        <v>64092</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F4" s="20">
         <v>296</v>
@@ -9176,61 +9257,53 @@
       <c r="I4" s="22"/>
       <c r="J4" s="21"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" ht="18">
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="18">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="20">
-        <v>2160</v>
+        <v>1452</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D5" s="20">
-        <v>715147</v>
+        <v>716066</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F5" s="20">
-        <v>6629</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>107</v>
-      </c>
+        <v>6639</v>
+      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="22">
-        <v>3</v>
-      </c>
+      <c r="I5" s="22"/>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" ht="18">
+    </row>
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="20">
-        <v>703</v>
+        <v>225</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D6" s="20">
-        <v>816661</v>
+        <v>817747</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F6" s="20">
         <v>12255</v>
@@ -9240,88 +9313,78 @@
       <c r="I6" s="22"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="18">
+    </row>
+    <row r="7" spans="1:14" ht="18">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="20">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="D7" s="20">
-        <v>90136</v>
+        <v>90522</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" s="20">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="21"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" ht="18">
+    </row>
+    <row r="8" spans="1:14" ht="18">
       <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="20">
-        <v>3539</v>
+        <v>888</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D8" s="20">
-        <v>1131637</v>
+        <v>1136425</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F8" s="20">
-        <v>14021</v>
+        <v>14030</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
       <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="18">
+    </row>
+    <row r="9" spans="1:14" ht="18">
       <c r="A9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="20">
-        <v>8</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="20">
-        <v>11425</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>76</v>
-      </c>
+        <v>11434</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="20">
         <v>4</v>
       </c>
@@ -9330,67 +9393,63 @@
       <c r="I9" s="22"/>
       <c r="J9" s="21"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" ht="18">
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" ht="18">
       <c r="A10" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="20">
-        <v>2617</v>
+        <v>1466</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D10" s="20">
-        <v>1826695</v>
+        <v>1833589</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F10" s="20">
-        <v>26097</v>
+        <v>26134</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" ht="18">
+    </row>
+    <row r="11" spans="1:14" ht="18">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="20">
-        <v>677</v>
+        <v>181</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20">
-        <v>240207</v>
+        <v>241092</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F11" s="20">
-        <v>3789</v>
+        <v>3826</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22">
@@ -9398,159 +9457,145 @@
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="18">
+    </row>
+    <row r="12" spans="1:14" ht="18">
       <c r="A12" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="20">
-        <v>5790</v>
+        <v>1109</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20">
-        <v>1203508</v>
+        <v>1211087</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F12" s="20">
-        <v>10887</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>108</v>
-      </c>
+        <v>10934</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <v>13</v>
-      </c>
+      <c r="I12" s="22"/>
       <c r="J12" s="21"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="18">
+    </row>
+    <row r="13" spans="1:14" ht="18">
       <c r="A13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="20">
-        <v>3682</v>
+        <v>1345</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20">
-        <v>963666</v>
+        <v>970766</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F13" s="20">
-        <v>10522</v>
+        <v>10571</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" ht="18">
+    </row>
+    <row r="14" spans="1:14" ht="18">
       <c r="A14" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="20">
-        <v>1992</v>
+        <v>536</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20">
-        <v>275886</v>
+        <v>278947</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F14" s="20">
-        <v>4093</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>107</v>
-      </c>
+        <v>4122</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="22">
-        <v>3</v>
-      </c>
+      <c r="I14" s="22"/>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="18">
+    </row>
+    <row r="15" spans="1:14" ht="18">
       <c r="A15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="20">
-        <v>2294</v>
+        <v>412</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D15" s="20">
-        <v>445115</v>
+        <v>448006</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F15" s="20">
-        <v>4746</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>4749</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
       <c r="J15" s="21"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="18">
+    </row>
+    <row r="16" spans="1:14" ht="18">
       <c r="A16" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="20">
-        <v>746</v>
+        <v>266</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D16" s="20">
-        <v>427869</v>
+        <v>428935</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F16" s="20">
         <v>5315</v>
@@ -9560,97 +9605,91 @@
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" ht="18">
+      <c r="L16" s="20"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" ht="18">
       <c r="A17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="20">
-        <v>13468</v>
+        <v>3507</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D17" s="20">
-        <v>3882340</v>
+        <v>3898576</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F17" s="20">
-        <v>39777</v>
+        <v>39985</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" ht="18">
+    </row>
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" s="20" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B18" s="20">
-        <v>75813</v>
+        <v>17913</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D18" s="20">
-        <v>6323697</v>
+        <v>6424920</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F18" s="20">
-        <v>64053</v>
+        <v>66012</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H18" s="22">
-        <v>412</v>
+        <v>179</v>
       </c>
       <c r="I18" s="22">
-        <v>524</v>
+        <v>254</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" ht="18">
+    </row>
+    <row r="19" spans="1:14" ht="18">
       <c r="A19" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="20">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="20">
-        <v>27175</v>
+        <v>27742</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="F19" s="20">
         <v>228</v>
@@ -9660,28 +9699,22 @@
       <c r="I19" s="22"/>
       <c r="J19" s="21"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" ht="18">
+      <c r="L19" s="20"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="20">
-        <v>64</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>107</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="D20" s="20">
-        <v>11255</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>127</v>
-      </c>
+        <v>11346</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="20">
         <v>52</v>
       </c>
@@ -9690,169 +9723,151 @@
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" ht="18">
+      <c r="L20" s="20"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="20">
-        <v>8364</v>
+        <v>1871</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D21" s="20">
-        <v>1014413</v>
+        <v>1027142</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F21" s="20">
-        <v>10713</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>74</v>
-      </c>
+        <v>10732</v>
+      </c>
+      <c r="G21" s="20"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="22">
-        <v>2</v>
-      </c>
+      <c r="I21" s="22"/>
       <c r="J21" s="21"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" ht="18">
+    </row>
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="20">
-        <v>22354</v>
+        <v>8478</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D22" s="20">
-        <v>7691064</v>
+        <v>7715711</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F22" s="20">
-        <v>143576</v>
+        <v>143727</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="18">
+    </row>
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="20">
-        <v>683</v>
+        <v>276</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D23" s="20">
-        <v>133605</v>
+        <v>134483</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="F23" s="20">
-        <v>2096</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>90</v>
-      </c>
+        <v>2113</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="22">
-        <v>4</v>
-      </c>
+      <c r="I23" s="22"/>
       <c r="J23" s="21"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16" ht="18">
+    </row>
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="20">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D24" s="20">
-        <v>91294</v>
+        <v>91831</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F24" s="20">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16" ht="18">
+    </row>
+    <row r="25" spans="1:14" ht="18">
       <c r="A25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="20">
-        <v>10071</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>174</v>
+        <v>5110</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="D25" s="20">
-        <v>195089</v>
+        <v>211267</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F25" s="20">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22">
@@ -9860,291 +9875,265 @@
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="20"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" ht="18">
+    </row>
+    <row r="26" spans="1:14" ht="18">
       <c r="A26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="20">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D26" s="20">
-        <v>34307</v>
+        <v>34596</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F26" s="20">
-        <v>753</v>
-      </c>
-      <c r="G26" s="20"/>
+        <v>757</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" ht="18">
+    </row>
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="20">
-        <v>5886</v>
+        <v>1505</v>
       </c>
       <c r="C27" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="20">
+        <v>1275019</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="20">
+        <v>9091</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1267109</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="20">
-        <v>8994</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16" ht="18">
+    </row>
+    <row r="28" spans="1:14" ht="18">
       <c r="A28" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="20">
-        <v>495</v>
+        <v>52</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="20">
-        <v>163110</v>
+        <v>163725</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>180</v>
       </c>
       <c r="F28" s="20">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="21"/>
       <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="18">
+    </row>
+    <row r="29" spans="1:14" ht="18">
       <c r="A29" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="20">
-        <v>1606</v>
+        <v>425</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D29" s="20">
-        <v>737822</v>
+        <v>740208</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F29" s="20">
-        <v>17662</v>
+        <v>17719</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16" ht="18">
+    </row>
+    <row r="30" spans="1:14" ht="18">
       <c r="A30" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="20">
-        <v>10967</v>
+        <v>2959</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D30" s="20">
-        <v>1253305</v>
+        <v>1268377</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F30" s="20">
-        <v>9516</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>131</v>
-      </c>
+        <v>9540</v>
+      </c>
+      <c r="G30" s="20"/>
       <c r="H30" s="22"/>
-      <c r="I30" s="22">
-        <v>9</v>
-      </c>
+      <c r="I30" s="22"/>
       <c r="J30" s="21"/>
       <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" ht="18">
+    </row>
+    <row r="31" spans="1:14" ht="18">
       <c r="A31" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="20">
+        <v>36</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="20">
+        <v>38602</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="20">
+        <v>443</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" ht="18">
+      <c r="A32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="20">
-        <v>164</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="20">
-        <v>38417</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="20">
-        <v>441</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22">
-        <v>1</v>
-      </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16" ht="18">
-      <c r="A32" s="20" t="s">
-        <v>101</v>
-      </c>
       <c r="B32" s="20">
-        <v>18164</v>
+        <v>3505</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D32" s="20">
-        <v>3387839</v>
+        <v>3409078</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F32" s="20">
-        <v>37977</v>
+        <v>38011</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="20"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-    </row>
-    <row r="33" spans="1:16" ht="18">
+    </row>
+    <row r="33" spans="1:14" ht="18">
       <c r="A33" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="20">
-        <v>5646</v>
+        <v>2164</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D33" s="20">
-        <v>776667</v>
+        <v>783278</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F33" s="20">
-        <v>4109</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>4111</v>
+      </c>
+      <c r="G33" s="20"/>
       <c r="H33" s="22"/>
-      <c r="I33" s="22">
-        <v>1</v>
-      </c>
+      <c r="I33" s="22"/>
       <c r="J33" s="21"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="20"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:16" ht="18">
+    </row>
+    <row r="34" spans="1:14" ht="18">
       <c r="A34" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="20">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="D34" s="20">
-        <v>99842</v>
+        <v>99939</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="F34" s="20">
         <v>919</v>
@@ -10154,115 +10143,96 @@
       <c r="I34" s="22"/>
       <c r="J34" s="21"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:16" ht="18">
+    </row>
+    <row r="35" spans="1:14" ht="18">
       <c r="A35" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="20">
-        <v>2899</v>
+        <v>1956</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D35" s="20">
-        <v>424507</v>
+        <v>426686</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F35" s="20">
-        <v>7670</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>78</v>
-      </c>
+        <v>7686</v>
+      </c>
+      <c r="G35" s="20"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="22">
-        <v>1</v>
-      </c>
+      <c r="I35" s="22"/>
       <c r="J35" s="21"/>
       <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="20"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:16" ht="18">
+    </row>
+    <row r="36" spans="1:14" ht="18">
       <c r="A36" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="20">
-        <v>7552</v>
+        <v>2629</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D36" s="20">
-        <v>2032899</v>
+        <v>2042665</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F36" s="20">
-        <v>23426</v>
+        <v>23471</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="20"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-    </row>
-    <row r="37" spans="1:16" ht="18">
+    </row>
+    <row r="37" spans="1:14" ht="18">
       <c r="A37" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="20">
-        <v>6648</v>
+        <v>1749</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D37" s="20">
-        <v>1985308</v>
+        <v>1992743</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F37" s="20">
-        <v>21119</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22">
-        <v>12</v>
+        <v>21178</v>
       </c>
       <c r="J37" s="21"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="20"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:16" ht="18">
+    </row>
+    <row r="38" spans="1:14" ht="18">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="20"/>
@@ -10281,44 +10251,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1D317E-D501-B04E-B622-A50394A159C7}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>417036</v>
       </c>
-      <c r="C2">
-        <v>328402</v>
-      </c>
-      <c r="D2">
-        <v>319667</v>
-      </c>
-      <c r="E2">
-        <v>8416</v>
+      <c r="C2" s="38">
+        <v>328681</v>
+      </c>
+      <c r="D2" s="38">
+        <v>321504</v>
+      </c>
+      <c r="E2" s="38">
+        <v>9122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10328,14 +10298,14 @@
       <c r="B3">
         <v>53903393</v>
       </c>
-      <c r="C3">
-        <v>43029208</v>
-      </c>
-      <c r="D3">
-        <v>39989064</v>
-      </c>
-      <c r="E3">
-        <v>1303308</v>
+      <c r="C3" s="38">
+        <v>43064854</v>
+      </c>
+      <c r="D3" s="38">
+        <v>41921938</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1471635</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10345,14 +10315,14 @@
       <c r="B4">
         <v>1570458</v>
       </c>
-      <c r="C4">
-        <v>885898</v>
-      </c>
-      <c r="D4">
-        <v>712899</v>
-      </c>
-      <c r="E4">
-        <v>22460</v>
+      <c r="C4" s="38">
+        <v>889229</v>
+      </c>
+      <c r="D4" s="38">
+        <v>725737</v>
+      </c>
+      <c r="E4" s="38">
+        <v>23983</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10362,14 +10332,14 @@
       <c r="B5">
         <v>35607039</v>
       </c>
-      <c r="C5">
-        <v>23348874</v>
-      </c>
-      <c r="D5">
-        <v>19367546</v>
-      </c>
-      <c r="E5">
-        <v>239362</v>
+      <c r="C5" s="38">
+        <v>23404950</v>
+      </c>
+      <c r="D5" s="38">
+        <v>19756118</v>
+      </c>
+      <c r="E5" s="38">
+        <v>265119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10379,14 +10349,14 @@
       <c r="B6">
         <v>124799926</v>
       </c>
-      <c r="C6">
-        <v>65970108</v>
-      </c>
-      <c r="D6">
-        <v>51310816</v>
-      </c>
-      <c r="E6">
-        <v>705256</v>
+      <c r="C6" s="38">
+        <v>66522527</v>
+      </c>
+      <c r="D6" s="38">
+        <v>53548014</v>
+      </c>
+      <c r="E6" s="38">
+        <v>794924</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10396,14 +10366,14 @@
       <c r="B7">
         <v>1158473</v>
       </c>
-      <c r="C7">
-        <v>1121942</v>
-      </c>
-      <c r="D7">
-        <v>879319</v>
-      </c>
-      <c r="E7">
-        <v>23338</v>
+      <c r="C7" s="38">
+        <v>1124753</v>
+      </c>
+      <c r="D7" s="38">
+        <v>890412</v>
+      </c>
+      <c r="E7" s="38">
+        <v>24915</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10413,490 +10383,490 @@
       <c r="B8">
         <v>29436231</v>
       </c>
-      <c r="C8">
-        <v>19586061</v>
-      </c>
-      <c r="D8">
-        <v>16274229</v>
-      </c>
-      <c r="E8">
-        <v>352101</v>
+      <c r="C8" s="38">
+        <v>19673327</v>
+      </c>
+      <c r="D8" s="38">
+        <v>17004386</v>
+      </c>
+      <c r="E8" s="38">
+        <v>385057</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>18710922</v>
       </c>
-      <c r="C9">
-        <v>17241787</v>
-      </c>
-      <c r="D9">
-        <v>13354018</v>
-      </c>
-      <c r="E9">
-        <v>393760</v>
+      <c r="C9" s="38">
+        <v>444977</v>
+      </c>
+      <c r="D9" s="38">
+        <v>334245</v>
+      </c>
+      <c r="E9" s="38">
+        <v>3100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>1586250</v>
       </c>
-      <c r="C10">
-        <v>1390736</v>
-      </c>
-      <c r="D10">
-        <v>1218168</v>
-      </c>
-      <c r="E10">
-        <v>29501</v>
+      <c r="C10" s="38">
+        <v>310289</v>
+      </c>
+      <c r="D10" s="38">
+        <v>264720</v>
+      </c>
+      <c r="E10" s="38">
+        <v>5004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>63872399</v>
       </c>
-      <c r="C11">
-        <v>51886238</v>
-      </c>
-      <c r="D11">
-        <v>48221103</v>
-      </c>
-      <c r="E11">
-        <v>1948722</v>
+      <c r="C11" s="38">
+        <v>17310169</v>
+      </c>
+      <c r="D11" s="38">
+        <v>13819637</v>
+      </c>
+      <c r="E11" s="38">
+        <v>428458</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>28204692</v>
       </c>
-      <c r="C12">
-        <v>22804990</v>
-      </c>
-      <c r="D12">
-        <v>17764307</v>
-      </c>
-      <c r="E12">
-        <v>222613</v>
+      <c r="C12" s="38">
+        <v>1392721</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1225671</v>
+      </c>
+      <c r="E12" s="38">
+        <v>30931</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>7451955</v>
       </c>
-      <c r="C13">
-        <v>6315079</v>
-      </c>
-      <c r="D13">
-        <v>5892298</v>
-      </c>
-      <c r="E13">
-        <v>160803</v>
+      <c r="C13" s="38">
+        <v>52051651</v>
+      </c>
+      <c r="D13" s="38">
+        <v>49244464</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2103614</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>13606320</v>
       </c>
-      <c r="C14">
-        <v>10714843</v>
-      </c>
-      <c r="D14">
-        <v>10361103</v>
-      </c>
-      <c r="E14">
-        <v>268611</v>
+      <c r="C14" s="38">
+        <v>22873891</v>
+      </c>
+      <c r="D14" s="38">
+        <v>18128907</v>
+      </c>
+      <c r="E14" s="38">
+        <v>243171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>38593948</v>
       </c>
-      <c r="C15">
-        <v>22106217</v>
-      </c>
-      <c r="D15">
-        <v>14072194</v>
-      </c>
-      <c r="E15">
-        <v>210401</v>
+      <c r="C15" s="38">
+        <v>6322356</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5922878</v>
+      </c>
+      <c r="E15" s="38">
+        <v>179033</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>67562686</v>
       </c>
-      <c r="C16">
-        <v>52064680</v>
-      </c>
-      <c r="D16">
-        <v>46450437</v>
-      </c>
-      <c r="E16">
-        <v>1127049</v>
+      <c r="C16" s="38">
+        <v>10748123</v>
+      </c>
+      <c r="D16" s="38">
+        <v>10537166</v>
+      </c>
+      <c r="E16" s="38">
+        <v>294654</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>35699443</v>
       </c>
-      <c r="C17">
-        <v>28052858</v>
-      </c>
-      <c r="D17">
-        <v>23310241</v>
-      </c>
-      <c r="E17">
-        <v>878552</v>
+      <c r="C17" s="38">
+        <v>22280037</v>
+      </c>
+      <c r="D17" s="38">
+        <v>14666318</v>
+      </c>
+      <c r="E17" s="38">
+        <v>231331</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18">
         <v>299000</v>
       </c>
-      <c r="C18">
-        <v>226875</v>
-      </c>
-      <c r="D18">
-        <v>186400</v>
-      </c>
-      <c r="E18">
-        <v>26863</v>
+      <c r="C18" s="38">
+        <v>52160496</v>
+      </c>
+      <c r="D18" s="38">
+        <v>47894595</v>
+      </c>
+      <c r="E18" s="38">
+        <v>1226198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19">
         <v>289023</v>
       </c>
-      <c r="C19">
-        <v>59492</v>
-      </c>
-      <c r="D19">
-        <v>56674</v>
-      </c>
-      <c r="E19">
-        <v>2282</v>
+      <c r="C19" s="38">
+        <v>28101819</v>
+      </c>
+      <c r="D19" s="38">
+        <v>23712014</v>
+      </c>
+      <c r="E19" s="38">
+        <v>934766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>85358965</v>
       </c>
-      <c r="C20">
-        <v>57888619</v>
-      </c>
-      <c r="D20">
-        <v>54267288</v>
-      </c>
-      <c r="E20">
-        <v>861939</v>
+      <c r="C20" s="38">
+        <v>227312</v>
+      </c>
+      <c r="D20" s="38">
+        <v>187988</v>
+      </c>
+      <c r="E20" s="38">
+        <v>29883</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>123144223</v>
       </c>
-      <c r="C21">
-        <v>87109254</v>
-      </c>
-      <c r="D21">
-        <v>65174967</v>
-      </c>
-      <c r="E21">
-        <v>1431340</v>
+      <c r="C21" s="38">
+        <v>59517</v>
+      </c>
+      <c r="D21" s="38">
+        <v>57069</v>
+      </c>
+      <c r="E21" s="38">
+        <v>2497</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>3091545</v>
       </c>
-      <c r="C22">
-        <v>1498474</v>
-      </c>
-      <c r="D22">
-        <v>1113681</v>
-      </c>
-      <c r="E22">
-        <v>55535</v>
+      <c r="C22" s="38">
+        <v>57988179</v>
+      </c>
+      <c r="D22" s="38">
+        <v>55066452</v>
+      </c>
+      <c r="E22" s="38">
+        <v>897705</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>3366710</v>
       </c>
-      <c r="C23">
-        <v>1355779</v>
-      </c>
-      <c r="D23">
-        <v>956468</v>
-      </c>
-      <c r="E23">
-        <v>25655</v>
+      <c r="C23" s="38">
+        <v>87428373</v>
+      </c>
+      <c r="D23" s="38">
+        <v>67525381</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1565406</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>1239244</v>
       </c>
-      <c r="C24">
-        <v>821318</v>
-      </c>
-      <c r="D24">
-        <v>640411</v>
-      </c>
-      <c r="E24">
-        <v>23625</v>
+      <c r="C24" s="38">
+        <v>1516617</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1151266</v>
+      </c>
+      <c r="E24" s="38">
+        <v>61143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>2249695</v>
       </c>
-      <c r="C25">
-        <v>865077</v>
-      </c>
-      <c r="D25">
-        <v>634442</v>
-      </c>
-      <c r="E25">
-        <v>19629</v>
+      <c r="C25" s="38">
+        <v>1363265</v>
+      </c>
+      <c r="D25" s="38">
+        <v>974233</v>
+      </c>
+      <c r="E25" s="38">
+        <v>27749</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>46356334</v>
       </c>
-      <c r="C26">
-        <v>32633322</v>
-      </c>
-      <c r="D26">
-        <v>26824890</v>
-      </c>
-      <c r="E26">
-        <v>770777</v>
+      <c r="C26" s="38">
+        <v>824277</v>
+      </c>
+      <c r="D26" s="38">
+        <v>650260</v>
+      </c>
+      <c r="E26" s="38">
+        <v>24537</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>1413542</v>
       </c>
-      <c r="C27">
-        <v>928494</v>
-      </c>
-      <c r="D27">
-        <v>629283</v>
-      </c>
-      <c r="E27">
-        <v>11955</v>
+      <c r="C27" s="38">
+        <v>874334</v>
+      </c>
+      <c r="D27" s="38">
+        <v>655598</v>
+      </c>
+      <c r="E27" s="38">
+        <v>21999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>30141373</v>
       </c>
-      <c r="C28">
-        <v>22334192</v>
-      </c>
-      <c r="D28">
-        <v>15873590</v>
-      </c>
-      <c r="E28">
-        <v>379135</v>
+      <c r="C28" s="38">
+        <v>32832691</v>
+      </c>
+      <c r="D28" s="38">
+        <v>27800940</v>
+      </c>
+      <c r="E28" s="38">
+        <v>818116</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>81032689</v>
       </c>
-      <c r="C29">
-        <v>53587710</v>
-      </c>
-      <c r="D29">
-        <v>43049408</v>
-      </c>
-      <c r="E29">
-        <v>1211849</v>
+      <c r="C29" s="38">
+        <v>932256</v>
+      </c>
+      <c r="D29" s="38">
+        <v>651930</v>
+      </c>
+      <c r="E29" s="38">
+        <v>12642</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>690251</v>
       </c>
-      <c r="C30">
-        <v>562464</v>
-      </c>
-      <c r="D30">
-        <v>510476</v>
-      </c>
-      <c r="E30">
-        <v>28248</v>
+      <c r="C30" s="38">
+        <v>22663011</v>
+      </c>
+      <c r="D30" s="38">
+        <v>16438646</v>
+      </c>
+      <c r="E30" s="38">
+        <v>403500</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>77841267</v>
       </c>
-      <c r="C31">
-        <v>55545388</v>
-      </c>
-      <c r="D31">
-        <v>41443382</v>
-      </c>
-      <c r="E31">
-        <v>544242</v>
+      <c r="C31" s="38">
+        <v>53867248</v>
+      </c>
+      <c r="D31" s="38">
+        <v>44086123</v>
+      </c>
+      <c r="E31" s="38">
+        <v>1322619</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>38510982</v>
       </c>
-      <c r="C32">
-        <v>30798908</v>
-      </c>
-      <c r="D32">
-        <v>26407374</v>
-      </c>
-      <c r="E32">
-        <v>433473</v>
+      <c r="C32" s="38">
+        <v>563383</v>
+      </c>
+      <c r="D32" s="38">
+        <v>516203</v>
+      </c>
+      <c r="E32" s="38">
+        <v>29893</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>4169794</v>
       </c>
-      <c r="C33">
-        <v>2763180</v>
-      </c>
-      <c r="D33">
-        <v>2265805</v>
-      </c>
-      <c r="E33">
-        <v>62102</v>
+      <c r="C33" s="38">
+        <v>55861189</v>
+      </c>
+      <c r="D33" s="38">
+        <v>42837225</v>
+      </c>
+      <c r="E33" s="38">
+        <v>592936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>237882725</v>
       </c>
-      <c r="C34">
-        <v>163687535</v>
-      </c>
-      <c r="D34">
-        <v>116638430</v>
-      </c>
-      <c r="E34">
-        <v>2156451</v>
+      <c r="C34" s="38">
+        <v>30908140</v>
+      </c>
+      <c r="D34" s="38">
+        <v>27405897</v>
+      </c>
+      <c r="E34" s="38">
+        <v>486808</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>11250858</v>
       </c>
-      <c r="C35">
-        <v>8556611</v>
-      </c>
-      <c r="D35">
-        <v>7835777</v>
-      </c>
-      <c r="E35">
-        <v>377317</v>
+      <c r="C35" s="38">
+        <v>2766263</v>
+      </c>
+      <c r="D35" s="38">
+        <v>2283673</v>
+      </c>
+      <c r="E35" s="38">
+        <v>66363</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>99609303</v>
       </c>
-      <c r="C36">
-        <v>69919065</v>
-      </c>
-      <c r="D36">
-        <v>57763823</v>
-      </c>
-      <c r="E36">
-        <v>1553629</v>
+      <c r="C36" s="38">
+        <v>165036252</v>
+      </c>
+      <c r="D36" s="38">
+        <v>124492786</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2302934</v>
       </c>
     </row>
   </sheetData>
@@ -10906,10 +10876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCA94CA-D9DE-B548-8735-C3641B00F463}">
-  <dimension ref="A1:S323"/>
+  <dimension ref="A1:S335"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29968,6 +29938,714 @@
         <v>64000</v>
       </c>
       <c r="S323" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B324" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C324" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D324" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E324" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F324" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G324" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H324" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I324" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J324" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K324" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L324" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M324" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N324" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O324" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P324" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q324" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R324" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S324" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B325" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C325" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D325" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E325" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F325" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G325" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H325" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I325" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J325" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K325" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L325" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M325" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N325" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O325" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P325" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q325" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R325" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S325" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B326" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C326" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D326" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E326" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F326" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G326" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H326" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I326" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J326" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K326" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L326" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M326" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N326" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O326" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P326" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q326" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R326" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S326" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B327" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C327" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D327" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E327" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F327" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G327" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H327" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I327" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J327" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K327" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L327" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M327" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N327" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O327" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P327" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q327" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R327" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S327" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B328" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C328" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D328" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E328" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F328" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G328" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H328" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I328" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J328" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K328" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L328" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M328" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N328" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O328" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P328" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q328" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R328" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S328" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B329" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C329" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D329" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E329" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F329" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G329" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H329" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I329" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J329" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K329" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L329" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M329" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N329" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O329" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P329" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q329" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R329" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S329" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B330" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C330" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D330" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E330" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F330" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G330" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H330" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I330" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J330" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K330" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L330" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M330" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N330" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O330" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P330" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q330" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R330" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S330" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B331" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C331" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D331" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E331" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F331" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G331" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H331" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I331" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J331" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K331" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L331" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M331" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N331" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O331" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P331" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q331" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R331" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S331" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B332" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C332" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D332" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E332" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F332" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G332" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H332" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I332" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J332" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K332" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L332" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M332" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N332" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O332" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P332" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q332" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R332" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S332" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
+      <c r="A333" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B333" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C333" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D333" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E333" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F333" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G333" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H333" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I333" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J333" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K333" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L333" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M333" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N333" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O333" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P333" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q333" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R333" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S333" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
+      <c r="A334" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B334" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C334" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D334" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E334" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F334" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G334" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H334" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I334" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J334" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K334" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L334" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M334" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N334" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O334" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P334" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q334" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R334" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S334" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
+      <c r="A335" s="3">
+        <v>44625</v>
+      </c>
+      <c r="B335" s="17">
+        <v>22000</v>
+      </c>
+      <c r="C335" s="17">
+        <v>21500</v>
+      </c>
+      <c r="D335" s="17">
+        <v>12500</v>
+      </c>
+      <c r="E335" s="17">
+        <v>35000</v>
+      </c>
+      <c r="F335" s="17">
+        <v>28500</v>
+      </c>
+      <c r="G335" s="17">
+        <v>32000</v>
+      </c>
+      <c r="H335" s="17">
+        <v>18500</v>
+      </c>
+      <c r="I335" s="17">
+        <v>20500</v>
+      </c>
+      <c r="J335" s="17">
+        <v>31500</v>
+      </c>
+      <c r="K335" s="17">
+        <v>31500</v>
+      </c>
+      <c r="L335" s="17">
+        <v>50000</v>
+      </c>
+      <c r="M335" s="17">
+        <v>82000</v>
+      </c>
+      <c r="N335" s="17">
+        <v>63000</v>
+      </c>
+      <c r="O335" s="17">
+        <v>84500</v>
+      </c>
+      <c r="P335" s="17">
+        <v>88000</v>
+      </c>
+      <c r="Q335" s="17">
+        <v>89000</v>
+      </c>
+      <c r="R335" s="17">
+        <v>64000</v>
+      </c>
+      <c r="S335" s="17">
         <v>52000</v>
       </c>
     </row>
@@ -29980,9 +30658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8984DF-48CB-5447-B9FA-A4B1DAFD9CF3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -29992,94 +30668,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20">
       <c r="A2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="27">
-        <v>10400661</v>
-      </c>
-      <c r="C2" s="27">
-        <v>9952131</v>
-      </c>
-      <c r="D2" s="27">
-        <v>4045802</v>
+        <v>120</v>
+      </c>
+      <c r="B2" s="36">
+        <v>10402069</v>
+      </c>
+      <c r="C2" s="36">
+        <v>9975317</v>
+      </c>
+      <c r="D2" s="36">
+        <v>4242878</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20">
       <c r="A3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="27">
-        <v>18407876</v>
-      </c>
-      <c r="C3" s="27">
-        <v>17415830</v>
-      </c>
-      <c r="D3" s="27">
-        <v>5897178</v>
+        <v>121</v>
+      </c>
+      <c r="B3" s="36">
+        <v>18410414</v>
+      </c>
+      <c r="C3" s="36">
+        <v>17458815</v>
+      </c>
+      <c r="D3" s="36">
+        <v>6373464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20">
       <c r="A4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="27">
-        <v>53625069</v>
-      </c>
-      <c r="C4" s="27">
-        <v>21557154</v>
+        <v>122</v>
+      </c>
+      <c r="B4" s="36">
+        <v>55365272</v>
+      </c>
+      <c r="C4" s="36">
+        <v>30753607</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="27">
-        <v>550294446</v>
-      </c>
-      <c r="C5" s="27">
-        <v>435543092</v>
+        <v>123</v>
+      </c>
+      <c r="B5" s="36">
+        <v>552528971</v>
+      </c>
+      <c r="C5" s="36">
+        <v>552528971</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="27">
-        <v>202030925</v>
-      </c>
-      <c r="C6" s="27">
-        <v>178284433</v>
+        <v>124</v>
+      </c>
+      <c r="B6" s="36">
+        <v>202395099</v>
+      </c>
+      <c r="C6" s="36">
+        <v>181332025</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="20">
       <c r="A7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="27">
-        <v>126199513</v>
-      </c>
-      <c r="C7" s="27">
-        <v>111065151</v>
-      </c>
-      <c r="D7" s="27">
-        <v>9003436</v>
+        <v>125</v>
+      </c>
+      <c r="B7" s="36">
+        <v>126505012</v>
+      </c>
+      <c r="C7" s="36">
+        <v>112926990</v>
+      </c>
+      <c r="D7" s="36">
+        <v>9991669</v>
       </c>
     </row>
   </sheetData>
@@ -30089,10 +30765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A5412-72F4-CA4E-9682-44F6B6C554A4}">
-  <dimension ref="A1:B1147"/>
+  <dimension ref="A1:B1160"/>
   <sheetViews>
-    <sheetView topLeftCell="A1138" workbookViewId="0">
-      <selection activeCell="A1138" sqref="A1138"/>
+    <sheetView topLeftCell="A1148" workbookViewId="0">
+      <selection activeCell="A1160" sqref="A1160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39273,6 +39949,110 @@
         <v>3948</v>
       </c>
     </row>
+    <row r="1148" spans="1:2">
+      <c r="A1148" s="4">
+        <v>44612</v>
+      </c>
+      <c r="B1148">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2">
+      <c r="A1149" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B1149">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2">
+      <c r="A1150" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B1150">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2">
+      <c r="A1151" s="4">
+        <v>44615</v>
+      </c>
+      <c r="B1151">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2">
+      <c r="A1152" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B1152">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2">
+      <c r="A1153" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B1153">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2">
+      <c r="A1154" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B1154">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2">
+      <c r="A1155" s="4">
+        <v>44619</v>
+      </c>
+      <c r="B1155">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2">
+      <c r="A1156" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B1156">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2">
+      <c r="A1157" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B1157">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2">
+      <c r="A1158" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B1158">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2">
+      <c r="A1159" s="4">
+        <v>44623</v>
+      </c>
+      <c r="B1159">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2">
+      <c r="A1160" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B1160">
+        <v>4080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39280,10 +40060,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44E43D3-B2B8-4440-9DFA-30FE18FECCE6}">
-  <dimension ref="A1:B629"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="A629" sqref="A629"/>
+    <sheetView topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44320,6 +45100,118 @@
         <v>27226.799999999999</v>
       </c>
     </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="4">
+        <v>44611</v>
+      </c>
+      <c r="B630" s="18">
+        <v>25778.25</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="4">
+        <v>44612</v>
+      </c>
+      <c r="B631" s="18">
+        <v>21128.33</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="4">
+        <v>44613</v>
+      </c>
+      <c r="B632" s="18">
+        <v>29480.41</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="4">
+        <v>44614</v>
+      </c>
+      <c r="B633" s="18">
+        <v>27023.99</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="4">
+        <v>44615</v>
+      </c>
+      <c r="B634" s="18">
+        <v>24444.21</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B635" s="18">
+        <v>32003.16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="4">
+        <v>44617</v>
+      </c>
+      <c r="B636" s="18">
+        <v>29271.51</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="4">
+        <v>44618</v>
+      </c>
+      <c r="B637" s="18">
+        <v>26149.22</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="4">
+        <v>44619</v>
+      </c>
+      <c r="B638" s="18">
+        <v>21228.83</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="4">
+        <v>44620</v>
+      </c>
+      <c r="B639" s="18">
+        <v>34896.42</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B640" s="18">
+        <v>33758.22</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B641" s="18">
+        <v>37033.35</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="4">
+        <v>44623</v>
+      </c>
+      <c r="B642" s="18">
+        <v>36252.300000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B643" s="18">
+        <v>35210.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44327,10 +45219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D064278-E4AD-8149-B400-6EAC50E0DC3D}">
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
-    <sheetView topLeftCell="A542" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A553" sqref="A553"/>
+    <sheetView topLeftCell="A557" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A566" sqref="A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48759,6 +49651,110 @@
         <v>7.63</v>
       </c>
     </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B554">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B555">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B556">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B557">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B558">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B559">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B560">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B561">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B562">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B563">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B564">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B565">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B566">
+        <v>8.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -48766,290 +49762,464 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EF183-B223-BA44-B3E0-EC1BFDE7C01F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="30">
-        <v>-0.17735211707621867</v>
-      </c>
-      <c r="C2" s="30">
-        <v>-0.45864832389983623</v>
-      </c>
-      <c r="D2" s="30">
-        <v>-0.39957622427515282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30">
-        <v>-0.42169635735176814</v>
-      </c>
-      <c r="C3" s="30">
-        <v>-0.52364393813460708</v>
-      </c>
-      <c r="D3" s="30">
-        <v>-0.46022632568229782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="30">
-        <v>0.16097513622109383</v>
-      </c>
-      <c r="C4" s="30">
-        <v>-0.19143531974841188</v>
-      </c>
-      <c r="D4" s="30">
-        <v>-5.65070900496909E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="30">
-        <v>-2.0152972166682548E-2</v>
-      </c>
-      <c r="C5" s="30">
-        <v>-0.33197530104416684</v>
-      </c>
-      <c r="D5" s="30">
-        <v>-0.22569103580324035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="30">
-        <v>-0.16588285745706499</v>
-      </c>
-      <c r="C6" s="30">
-        <v>-0.31981553451902034</v>
-      </c>
-      <c r="D6" s="30">
-        <v>-0.20896245562648241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="30">
-        <v>-0.17415571610611713</v>
-      </c>
-      <c r="C7" s="30">
-        <v>-0.17664582429181463</v>
-      </c>
-      <c r="D7" s="30">
-        <v>-0.17544644096981143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="30">
-        <v>-0.25518182243006426</v>
-      </c>
-      <c r="C8" s="30">
-        <v>-0.81865645467779558</v>
-      </c>
-      <c r="D8" s="30">
-        <v>-0.4960698868526574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="30">
-        <v>-6.9279233739349966E-3</v>
-      </c>
-      <c r="C9" s="30">
-        <v>-0.86681022282244224</v>
-      </c>
-      <c r="D9" s="30">
-        <v>-0.21913867185817815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="30">
-        <v>-0.36550769915729397</v>
-      </c>
-      <c r="C10" s="30">
-        <v>-0.45605680743869892</v>
-      </c>
-      <c r="D10" s="30">
-        <v>-0.42873704245052968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="30">
-        <v>3.7593456359970467E-2</v>
-      </c>
-      <c r="C11" s="30">
-        <v>-0.3948121358113309</v>
-      </c>
-      <c r="D11" s="30">
-        <v>-0.25060548738908706</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="30">
-        <v>-0.29843049032376889</v>
-      </c>
-      <c r="C12" s="30">
-        <v>-0.19965577917079069</v>
-      </c>
-      <c r="D12" s="30">
-        <v>-0.20727567235116628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="30">
-        <v>5.6759953977539634E-2</v>
-      </c>
-      <c r="C13" s="30">
-        <v>-5.3973991489100426E-2</v>
-      </c>
-      <c r="D13" s="30">
-        <v>6.0563786123917218E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="30">
-        <v>1.9534758774691241E-2</v>
-      </c>
-      <c r="C14" s="30">
-        <v>-0.31088734516914962</v>
-      </c>
-      <c r="D14" s="30">
-        <v>-7.3827762924827289E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="30">
-        <v>-0.19580412633079769</v>
-      </c>
-      <c r="C15" s="30">
-        <v>-0.53495480825990149</v>
-      </c>
-      <c r="D15" s="30">
-        <v>-0.25830707577622791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="30">
-        <v>-0.16298906869037799</v>
-      </c>
-      <c r="C16" s="30">
-        <v>-0.30202906701789001</v>
-      </c>
-      <c r="D16" s="30">
-        <v>-0.2698307763711586</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="30">
-        <v>-7.921595910553747E-2</v>
-      </c>
-      <c r="C17" s="30">
-        <v>-0.31775758817335953</v>
-      </c>
-      <c r="D17" s="30">
-        <v>-0.1176482619802941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="30">
-        <v>-0.25451552902388619</v>
-      </c>
-      <c r="C18" s="30">
-        <v>-0.78124789408620743</v>
-      </c>
-      <c r="D18" s="30">
-        <v>-0.42220330077296586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="30">
-        <v>-0.11381232163002042</v>
-      </c>
-      <c r="C19" s="30">
-        <v>-0.50500126046625582</v>
-      </c>
-      <c r="D19" s="30">
-        <v>-0.26737909949125938</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="35">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="C2" s="35">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="D2" s="35">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" ht="18">
+      <c r="A3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="35">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="C3" s="35">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="D3" s="35">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.501</v>
+      </c>
+      <c r="C4" s="35">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="D5" s="35">
+        <v>-0.188</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="D6" s="35">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="35">
+        <v>-0.158</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-0.104</v>
+      </c>
+      <c r="D7" s="35">
+        <v>-0.13</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-0.224</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-0.80400000000000005</v>
+      </c>
+      <c r="D8" s="35">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="35">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-0.873</v>
+      </c>
+      <c r="D9" s="35">
+        <v>-0.216</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="35">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="D10" s="35">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="35">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-0.32600000000000001</v>
+      </c>
+      <c r="D11" s="35">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="35">
+        <v>-0.35</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-0.186</v>
+      </c>
+      <c r="D12" s="35">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="D13" s="35">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-0.255</v>
+      </c>
+      <c r="D14" s="35">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="D15" s="35">
+        <v>-0.224</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="35">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="C16" s="35">
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="D16" s="35">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="35">
+        <v>-0.11</v>
+      </c>
+      <c r="C17" s="35">
+        <v>-0.307</v>
+      </c>
+      <c r="D17" s="35">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="35">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="C18" s="35">
+        <v>-0.74399999999999999</v>
+      </c>
+      <c r="D18" s="35">
+        <v>-0.43099999999999999</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="35">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="C19" s="35">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="D19" s="35">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="18">
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" ht="18">
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="18">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="18">
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="18">
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="18">
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="6:6" ht="18">
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="6:6" ht="18">
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="6:6" ht="18">
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="6:6" ht="18">
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="6:6" ht="18">
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="6:6" ht="18">
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="6:6" ht="18">
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="6:6" ht="18">
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="6:6" ht="18">
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="6:6" ht="18">
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="6:6" ht="18">
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="6:6" ht="18">
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="6:6" ht="18">
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="6:6" ht="18">
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="6:6" ht="18">
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="6:6" ht="18">
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="6:6" ht="18">
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="6:6" ht="18">
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="6:6" ht="18">
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="6:6" ht="18">
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="6:6" ht="18">
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="6:6" ht="18">
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="6:6" ht="18">
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="6:6" ht="18">
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="6:6" ht="18">
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="6:6" ht="18">
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="6:6" ht="18">
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="6:6" ht="18">
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="6:6" ht="18">
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="6:6" ht="18">
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="6:6" ht="18">
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="6:6" ht="18">
+      <c r="F64" s="31"/>
+    </row>
+    <row r="65" spans="6:6" ht="18">
+      <c r="F65" s="31"/>
+    </row>
+    <row r="66" spans="6:6" ht="18">
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="6:6" ht="18">
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="6:6" ht="18">
+      <c r="F68" s="31"/>
+    </row>
+    <row r="69" spans="6:6" ht="18">
+      <c r="F69" s="31"/>
+    </row>
+    <row r="70" spans="6:6" ht="18">
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="6:6" ht="18">
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="6:6" ht="18">
+      <c r="F72" s="31"/>
+    </row>
+    <row r="73" spans="6:6" ht="18">
+      <c r="F73" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -49058,272 +50228,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B73DA-0631-CA47-AE4E-9C96F2353AB8}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>197</v>
+      <c r="A1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="29">
         <v>-9.8584166412597596E-2</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>-8.5617661820756141E-2</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>-8.9386491049690764E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="29">
         <v>-2.4202355199732906E-2</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>7.277922514497015E-2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>6.1349400009080846E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="30">
+      <c r="A4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="29">
         <v>-9.4527828992855278E-3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>-1.0922625530115693E-2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>-1.0230686295118474E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="30">
+      <c r="A5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="29">
         <v>1.957902819000279E-2</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>-4.8573189936511607E-2</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>-2.0327929432213954E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="30">
+      <c r="A6" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="29">
         <v>-0.13082254612170008</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>8.0548284713528595E-3</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>-0.10101897519046421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="A7" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="29">
         <v>-1.3146380955662007E-2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>4.9278608154151859E-2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>1.8207196455272578E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="29">
         <v>-1.3400977497078914E-3</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>-1.3033129323763992E-2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>-3.1569684812242649E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="A9" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="29">
         <v>8.6045091610129631E-3</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>-2.3038979195998732E-2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>7.2312211083909173E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="29">
         <v>-2.0373768670736148E-3</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>-7.1588720167111264E-2</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>-4.9387447796636286E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="29">
         <v>-7.4506039062984031E-2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>-0.10853353024529477</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>-9.3137509888338577E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="A12" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="29">
         <v>1.5926539787773253E-2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="29">
         <v>-3.6165337853945378E-2</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>-3.2779353873625294E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="A13" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="29">
         <v>-3.3194663946651382E-2</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="29">
         <v>-4.1867135095641883E-2</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>-3.6947896536471125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="A14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="29">
         <v>-5.2234484717663454E-2</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="29">
         <v>-1.9887767507147158E-2</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>-4.5612608726683712E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="A15" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="29">
         <v>-8.3842121111726176E-2</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="29">
         <v>1.0671354147059109E-2</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>-7.3834025692786187E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="30">
+      <c r="A16" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="29">
         <v>-2.0634762341944279E-2</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>-4.2886013787892807E-3</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="29">
         <v>-8.6808332428619517E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="30">
+      <c r="A17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="29">
         <v>1.2220207025338103E-2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>-5.6085072130316105E-2</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>3.1768822601314639E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="30">
+      <c r="A18" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="29">
         <v>-2.3939163436452526E-2</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <v>1.5664912442679979E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="29">
         <v>-1.9330226139112172E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="30">
+      <c r="A19" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="29">
         <v>-1.1337314760303197E-2</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>-4.8286935131272468E-2</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="29">
         <v>-2.1414476539736493E-2</v>
       </c>
     </row>
@@ -49346,10 +50516,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE529FD-4597-F641-B496-01BE3204D79B}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51275,6 +52445,28 @@
         <v>40.229999999999997</v>
       </c>
     </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B126">
+        <v>7.42</v>
+      </c>
+      <c r="E126">
+        <v>40.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B127">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E127">
+        <v>40.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51282,10 +52474,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DA751-8DDE-2444-A8CE-DEF963043B5D}">
-  <dimension ref="A1:J383"/>
+  <dimension ref="A1:J396"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -63546,6 +64738,422 @@
         <v>66.569999999999993</v>
       </c>
     </row>
+    <row r="384" spans="1:10">
+      <c r="A384" s="3">
+        <v>44612</v>
+      </c>
+      <c r="B384">
+        <v>61.52</v>
+      </c>
+      <c r="C384">
+        <v>53.17</v>
+      </c>
+      <c r="D384">
+        <v>66.06</v>
+      </c>
+      <c r="E384">
+        <v>61.09</v>
+      </c>
+      <c r="F384">
+        <v>53.14</v>
+      </c>
+      <c r="G384">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="H384">
+        <v>61.81</v>
+      </c>
+      <c r="I384">
+        <v>53.19</v>
+      </c>
+      <c r="J384">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10">
+      <c r="A385" s="3">
+        <v>44613</v>
+      </c>
+      <c r="B385">
+        <v>61.7</v>
+      </c>
+      <c r="C385">
+        <v>53.5</v>
+      </c>
+      <c r="D385">
+        <v>66.42</v>
+      </c>
+      <c r="E385">
+        <v>61.09</v>
+      </c>
+      <c r="F385">
+        <v>53.14</v>
+      </c>
+      <c r="G385">
+        <v>65.73</v>
+      </c>
+      <c r="H385">
+        <v>62.1</v>
+      </c>
+      <c r="I385">
+        <v>53.74</v>
+      </c>
+      <c r="J385">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10">
+      <c r="A386" s="3">
+        <v>44614</v>
+      </c>
+      <c r="B386">
+        <v>62.06</v>
+      </c>
+      <c r="C386">
+        <v>53.67</v>
+      </c>
+      <c r="D386">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="E386">
+        <v>61.54</v>
+      </c>
+      <c r="F386">
+        <v>53.14</v>
+      </c>
+      <c r="G386">
+        <v>65.73</v>
+      </c>
+      <c r="H386">
+        <v>62.39</v>
+      </c>
+      <c r="I386">
+        <v>54.02</v>
+      </c>
+      <c r="J386">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10">
+      <c r="A387" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B387">
+        <v>62.23</v>
+      </c>
+      <c r="C387">
+        <v>53.67</v>
+      </c>
+      <c r="D387">
+        <v>66.42</v>
+      </c>
+      <c r="E387">
+        <v>61.99</v>
+      </c>
+      <c r="F387">
+        <v>53.14</v>
+      </c>
+      <c r="G387">
+        <v>66.2</v>
+      </c>
+      <c r="H387">
+        <v>62.39</v>
+      </c>
+      <c r="I387">
+        <v>54.02</v>
+      </c>
+      <c r="J387">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10">
+      <c r="A388" s="3">
+        <v>44616</v>
+      </c>
+      <c r="B388">
+        <v>62.23</v>
+      </c>
+      <c r="C388">
+        <v>54.17</v>
+      </c>
+      <c r="D388">
+        <v>66.42</v>
+      </c>
+      <c r="E388">
+        <v>61.99</v>
+      </c>
+      <c r="F388">
+        <v>53.56</v>
+      </c>
+      <c r="G388">
+        <v>66.2</v>
+      </c>
+      <c r="H388">
+        <v>62.39</v>
+      </c>
+      <c r="I388">
+        <v>54.57</v>
+      </c>
+      <c r="J388">
+        <v>66.569999999999993</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10">
+      <c r="A389" s="3">
+        <v>44617</v>
+      </c>
+      <c r="B389">
+        <v>62.41</v>
+      </c>
+      <c r="C389">
+        <v>54.17</v>
+      </c>
+      <c r="D389">
+        <v>66.61</v>
+      </c>
+      <c r="E389">
+        <v>61.99</v>
+      </c>
+      <c r="F389">
+        <v>53.56</v>
+      </c>
+      <c r="G389">
+        <v>66.2</v>
+      </c>
+      <c r="H389">
+        <v>62.68</v>
+      </c>
+      <c r="I389">
+        <v>54.57</v>
+      </c>
+      <c r="J389">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10">
+      <c r="A390" s="3">
+        <v>44618</v>
+      </c>
+      <c r="B390">
+        <v>62.59</v>
+      </c>
+      <c r="C390">
+        <v>54.67</v>
+      </c>
+      <c r="D390">
+        <v>66.61</v>
+      </c>
+      <c r="E390">
+        <v>61.99</v>
+      </c>
+      <c r="F390">
+        <v>53.97</v>
+      </c>
+      <c r="G390">
+        <v>66.2</v>
+      </c>
+      <c r="H390">
+        <v>62.97</v>
+      </c>
+      <c r="I390">
+        <v>55.12</v>
+      </c>
+      <c r="J390">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10">
+      <c r="A391" s="3">
+        <v>44619</v>
+      </c>
+      <c r="B391">
+        <v>63.12</v>
+      </c>
+      <c r="C391">
+        <v>54.83</v>
+      </c>
+      <c r="D391">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="E391">
+        <v>62.44</v>
+      </c>
+      <c r="F391">
+        <v>53.97</v>
+      </c>
+      <c r="G391">
+        <v>66.67</v>
+      </c>
+      <c r="H391">
+        <v>63.56</v>
+      </c>
+      <c r="I391">
+        <v>55.4</v>
+      </c>
+      <c r="J391">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10">
+      <c r="A392" s="3">
+        <v>44620</v>
+      </c>
+      <c r="B392">
+        <v>63.3</v>
+      </c>
+      <c r="C392">
+        <v>55.33</v>
+      </c>
+      <c r="D392">
+        <v>66.97</v>
+      </c>
+      <c r="E392">
+        <v>62.9</v>
+      </c>
+      <c r="F392">
+        <v>54.39</v>
+      </c>
+      <c r="G392">
+        <v>66.67</v>
+      </c>
+      <c r="H392">
+        <v>63.56</v>
+      </c>
+      <c r="I392">
+        <v>55.96</v>
+      </c>
+      <c r="J392">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10">
+      <c r="A393" s="3">
+        <v>44621</v>
+      </c>
+      <c r="B393">
+        <v>63.3</v>
+      </c>
+      <c r="C393">
+        <v>55.5</v>
+      </c>
+      <c r="D393">
+        <v>66.97</v>
+      </c>
+      <c r="E393">
+        <v>62.9</v>
+      </c>
+      <c r="F393">
+        <v>54.39</v>
+      </c>
+      <c r="G393">
+        <v>66.67</v>
+      </c>
+      <c r="H393">
+        <v>63.56</v>
+      </c>
+      <c r="I393">
+        <v>56.23</v>
+      </c>
+      <c r="J393">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10">
+      <c r="A394" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B394">
+        <v>63.3</v>
+      </c>
+      <c r="C394">
+        <v>55.5</v>
+      </c>
+      <c r="D394">
+        <v>67.52</v>
+      </c>
+      <c r="E394">
+        <v>62.9</v>
+      </c>
+      <c r="F394">
+        <v>54.39</v>
+      </c>
+      <c r="G394">
+        <v>67.61</v>
+      </c>
+      <c r="H394">
+        <v>63.56</v>
+      </c>
+      <c r="I394">
+        <v>56.23</v>
+      </c>
+      <c r="J394">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10">
+      <c r="A395" s="3">
+        <v>44623</v>
+      </c>
+      <c r="B395">
+        <v>63.65</v>
+      </c>
+      <c r="C395">
+        <v>55.5</v>
+      </c>
+      <c r="D395">
+        <v>67.52</v>
+      </c>
+      <c r="E395">
+        <v>63.35</v>
+      </c>
+      <c r="F395">
+        <v>54.39</v>
+      </c>
+      <c r="G395">
+        <v>67.61</v>
+      </c>
+      <c r="H395">
+        <v>63.85</v>
+      </c>
+      <c r="I395">
+        <v>56.23</v>
+      </c>
+      <c r="J395">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10">
+      <c r="A396" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B396">
+        <v>63.48</v>
+      </c>
+      <c r="C396">
+        <v>55.67</v>
+      </c>
+      <c r="D396">
+        <v>67.34</v>
+      </c>
+      <c r="E396">
+        <v>63.35</v>
+      </c>
+      <c r="F396">
+        <v>54.39</v>
+      </c>
+      <c r="G396">
+        <v>68.08</v>
+      </c>
+      <c r="H396">
+        <v>63.56</v>
+      </c>
+      <c r="I396">
+        <v>56.51</v>
+      </c>
+      <c r="J396">
+        <v>66.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
